--- a/trophic_basis.xlsx
+++ b/trophic_basis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/trophic_basis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA7D9A5-CEA1-490E-AA75-F81A78B454E4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36574311-FEA2-404D-B535-A8B4ADDE8C7C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>sec_pro</t>
   </si>
@@ -71,17 +71,38 @@
     <t>post</t>
   </si>
   <si>
-    <t>%_iso_sig</t>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Nov_17</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>QPA</t>
+  </si>
+  <si>
+    <t>perc_iso_sig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,19 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1240C82-FAEF-4759-BB5D-29C71F062F23}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -443,184 +467,300 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>48.71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0.76427979999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>48.71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.1164308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>48.71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.11928950000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>33.33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.80913230000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>33.33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>9.978215E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>33.33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>9.1085600000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <v>2.2970000000000002</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0.4186764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>2.2970000000000002</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.3624367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>2.2970000000000002</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.21888679999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
         <v>18.829999999999998</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.78572850000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>18.829999999999998</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.11861289999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
         <v>18.829999999999998</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>6</v>
       </c>
+      <c r="G13">
+        <v>9.5658560000000004E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trophic_basis.xlsx
+++ b/trophic_basis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/trophic_basis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36574311-FEA2-404D-B535-A8B4ADDE8C7C}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05069F26-4669-41CE-8453-68067140AB97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="18">
   <si>
     <t>sec_pro</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>perc_iso_sig</t>
+  </si>
+  <si>
+    <t>phylloicus</t>
   </si>
 </sst>
 </file>
@@ -445,21 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1240C82-FAEF-4759-BB5D-29C71F062F23}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -505,7 +508,7 @@
         <v>0.76427979999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -528,7 +531,7 @@
         <v>0.1164308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -551,7 +554,7 @@
         <v>0.11928950000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -574,7 +577,7 @@
         <v>0.80913230000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -597,7 +600,7 @@
         <v>9.978215E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -620,7 +623,7 @@
         <v>9.1085600000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -643,7 +646,7 @@
         <v>0.4186764</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -666,7 +669,7 @@
         <v>0.3624367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -689,7 +692,7 @@
         <v>0.21888679999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -712,7 +715,7 @@
         <v>0.78572850000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -735,7 +738,7 @@
         <v>0.11861289999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -756,6 +759,144 @@
       </c>
       <c r="G13">
         <v>9.5658560000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>2.68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0.68913150000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2.68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0.15878320000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2.68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0.15208530000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1.24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0.66272169999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>1.24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0.23018859999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>1.24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>0.1070897</v>
       </c>
     </row>
   </sheetData>

--- a/trophic_basis.xlsx
+++ b/trophic_basis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/trophic_basis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05069F26-4669-41CE-8453-68067140AB97}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9EDBAB9-2B8F-4331-8B9B-BF45A624B6B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sec_pro" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
   <si>
     <t>sec_pro</t>
   </si>
@@ -90,6 +91,21 @@
   </si>
   <si>
     <t>phylloicus</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Neohagenulus</t>
+  </si>
+  <si>
+    <t>Cloeodes</t>
   </si>
 </sst>
 </file>
@@ -450,19 +466,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1240C82-FAEF-4759-BB5D-29C71F062F23}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -485,7 +501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -508,7 +524,7 @@
         <v>0.76427979999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -531,7 +547,7 @@
         <v>0.1164308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -554,7 +570,7 @@
         <v>0.11928950000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -577,7 +593,7 @@
         <v>0.80913230000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -600,7 +616,7 @@
         <v>9.978215E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -623,7 +639,7 @@
         <v>9.1085600000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -646,7 +662,7 @@
         <v>0.4186764</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -669,7 +685,7 @@
         <v>0.3624367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -692,7 +708,7 @@
         <v>0.21888679999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -715,7 +731,7 @@
         <v>0.78572850000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -738,7 +754,7 @@
         <v>0.11861289999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -761,7 +777,7 @@
         <v>9.5658560000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -784,7 +800,7 @@
         <v>0.68913150000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -807,7 +823,7 @@
         <v>0.15878320000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -830,7 +846,7 @@
         <v>0.15208530000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -853,7 +869,7 @@
         <v>0.66272169999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -876,7 +892,7 @@
         <v>0.23018859999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -904,4 +920,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA028DF-5441-469A-B7B2-EAA08DBE9BF1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>389.69746815286504</v>
+      </c>
+      <c r="D2">
+        <v>67.109872554024435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>499.93996918803759</v>
+      </c>
+      <c r="D3">
+        <v>154.0815743209198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>23.764039682806377</v>
+      </c>
+      <c r="D4">
+        <v>4.5321792362871394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>282.55152025804966</v>
+      </c>
+      <c r="D5">
+        <v>70.43212197912176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trophic_basis.xlsx
+++ b/trophic_basis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/trophic_basis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9EDBAB9-2B8F-4331-8B9B-BF45A624B6B8}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCA58CD-277B-4923-ACE7-C1D14EA271D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,15 +127,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,13 +149,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1240C82-FAEF-4759-BB5D-29C71F062F23}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,191 +613,191 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>0.80913230000000003</v>
+        <v>0.70962530000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
         <v>33.33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>9.978215E-2</v>
+      <c r="G6" s="2">
+        <v>0.15559539999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
         <v>33.33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>9.1085600000000003E-2</v>
+      <c r="G7" s="4">
+        <v>0.13477929999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
         <v>2.2970000000000002</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>0.4186764</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
         <v>2.2970000000000002</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>0.3624367</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
         <v>2.2970000000000002</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>0.21888679999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6">
         <v>18.829999999999998</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>0.78572850000000005</v>
+      <c r="G11" s="6">
+        <v>0.37732890000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6">
         <v>18.829999999999998</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>0.11861289999999999</v>
+      <c r="G12" s="6">
+        <v>0.32537460000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8">
         <v>18.829999999999998</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G13">
-        <v>9.5658560000000004E-2</v>
+      <c r="G13" s="6">
+        <v>0.29729650000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA028DF-5441-469A-B7B2-EAA08DBE9BF1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +977,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>389.69746815286504</v>
+        <v>48.71218351910813</v>
       </c>
       <c r="D2">
-        <v>67.109872554024435</v>
+        <v>6.6555286022543481</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>499.93996918803759</v>
+        <v>35.003141609973945</v>
       </c>
       <c r="D3">
-        <v>154.0815743209198</v>
+        <v>11.620273817864287</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>23.764039682806377</v>
+        <v>2.9705049603507971</v>
       </c>
       <c r="D4">
-        <v>4.5321792362871394</v>
+        <v>0.99611942328956615</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,10 +1019,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>282.55152025804966</v>
+        <v>19.117322053404585</v>
       </c>
       <c r="D5">
-        <v>70.43212197912176</v>
+        <v>3.3015137603164848</v>
       </c>
     </row>
   </sheetData>

--- a/trophic_basis.xlsx
+++ b/trophic_basis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/trophic_basis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCA58CD-277B-4923-ACE7-C1D14EA271D6}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89793CBF-8D27-4933-8339-B1FA12EBFCAD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="24">
   <si>
     <t>sec_pro</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Cloeodes</t>
+  </si>
+  <si>
+    <t>Phylloicus</t>
   </si>
 </sst>
 </file>
@@ -162,17 +165,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,19 +491,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1240C82-FAEF-4759-BB5D-29C71F062F23}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -524,7 +526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +549,7 @@
         <v>0.76427979999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -570,7 +572,7 @@
         <v>0.1164308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -593,7 +595,7 @@
         <v>0.11928950000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -616,191 +618,191 @@
         <v>0.70962530000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>33.33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>0.15559539999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <v>33.33</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.13477929999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
         <v>2.2970000000000002</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>0.4186764</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
         <v>2.2970000000000002</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>0.3624367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
         <v>2.2970000000000002</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0.21888679999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
         <v>18.829999999999998</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0.37732890000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
         <v>18.829999999999998</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>0.32537460000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6">
         <v>18.829999999999998</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>0.29729650000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -823,7 +825,7 @@
         <v>0.68913150000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -846,7 +848,7 @@
         <v>0.15878320000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -869,7 +871,7 @@
         <v>0.15208530000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -892,7 +894,7 @@
         <v>0.66272169999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -915,7 +917,7 @@
         <v>0.23018859999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -947,15 +949,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA028DF-5441-469A-B7B2-EAA08DBE9BF1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -969,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -982,8 +984,9 @@
       <c r="D2">
         <v>6.6555286022543481</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>11.620273817864287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>0.99611942328956615</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1024,6 +1027,37 @@
       <c r="D5">
         <v>3.3015137603164848</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2.6801042500000003</v>
+      </c>
+      <c r="D6">
+        <v>0.96322103612232357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.95702825000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.3708176434071907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trophic_basis.xlsx
+++ b/trophic_basis.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/04_ Congresos/32 SFS 2023 Australia/trophic_basis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgutierr\OneDrive - University of Vermont\Curriculum\04_ Congresos\32 SFS 2023 Australia\trophic_basis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{8FCC5B02-CC27-4621-8191-A8A977899EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89793CBF-8D27-4933-8339-B1FA12EBFCAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5BE01-4222-4767-BEA2-49EFE021F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{F5BB60B0-841B-4CE8-832C-6B932C0FCF61}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="energyflow" sheetId="1" r:id="rId1"/>
     <sheet name="sec_pro" sheetId="2" r:id="rId2"/>
+    <sheet name="Biomass_Prod_E_P" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="38">
   <si>
     <t>sec_pro</t>
   </si>
@@ -109,13 +110,55 @@
   </si>
   <si>
     <t>Phylloicus</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>nymph</t>
+  </si>
+  <si>
+    <t>PreH</t>
+  </si>
+  <si>
+    <t>PostH</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>Borinquena</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>emergence</t>
+  </si>
+  <si>
+    <t>nymph_adult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +171,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -175,6 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,18 +542,18 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -526,7 +576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -549,7 +599,7 @@
         <v>0.76427979999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -572,7 +622,7 @@
         <v>0.1164308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -595,7 +645,7 @@
         <v>0.11928950000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -618,7 +668,7 @@
         <v>0.70962530000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -641,7 +691,7 @@
         <v>0.15559539999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -664,7 +714,7 @@
         <v>0.13477929999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -687,7 +737,7 @@
         <v>0.4186764</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -710,7 +760,7 @@
         <v>0.3624367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -733,7 +783,7 @@
         <v>0.21888679999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -756,7 +806,7 @@
         <v>0.37732890000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -779,7 +829,7 @@
         <v>0.32537460000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -802,7 +852,7 @@
         <v>0.29729650000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -825,7 +875,7 @@
         <v>0.68913150000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -848,7 +898,7 @@
         <v>0.15878320000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -871,7 +921,7 @@
         <v>0.15208530000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -894,7 +944,7 @@
         <v>0.66272169999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -917,7 +967,7 @@
         <v>0.23018859999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -951,13 +1001,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA028DF-5441-469A-B7B2-EAA08DBE9BF1}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -971,7 +1021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -986,7 +1036,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1000,7 +1050,7 @@
         <v>11.620273817864287</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1064,7 @@
         <v>0.99611942328956615</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1028,7 +1078,7 @@
         <v>3.3015137603164848</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1092,7 @@
         <v>0.96322103612232357</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1056,8 +1106,766 @@
         <v>0.3708176434071907</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FC347B-1983-4D2A-8B8A-826D99646F81}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>101.15324074074074</v>
+      </c>
+      <c r="F2">
+        <v>44.576403319665935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>40.697222222222223</v>
+      </c>
+      <c r="F3">
+        <v>10.945452911095655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>164.55833333333334</v>
+      </c>
+      <c r="F4">
+        <v>35.369530295464209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>87.233611111111117</v>
+      </c>
+      <c r="F5">
+        <v>27.99798891311681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>29.19583333333334</v>
+      </c>
+      <c r="F6">
+        <v>11.836776608451943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>150.4027777777778</v>
+      </c>
+      <c r="F7">
+        <v>38.821638762271121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3.7831319604075708</v>
+      </c>
+      <c r="F8">
+        <v>1.1015625317641373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1.0211856194184419</v>
+      </c>
+      <c r="F9">
+        <v>0.28694725276759769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>22.72490037706725</v>
+      </c>
+      <c r="F10">
+        <v>5.0942166923203693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>18.314019291158647</v>
+      </c>
+      <c r="F11">
+        <v>8.5461405238855317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1.1725298399751767</v>
+      </c>
+      <c r="F12">
+        <v>0.50755012309487102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>9.20065861704356</v>
+      </c>
+      <c r="F13">
+        <v>2.0580113761799654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1.2791666666666668</v>
+      </c>
+      <c r="F14">
+        <v>0.38954274680361017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1.0017857142857143</v>
+      </c>
+      <c r="F15">
+        <v>0.27717564469815525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>6.2331349206349209</v>
+      </c>
+      <c r="F16">
+        <v>1.6641217325546034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3.0178571428571432</v>
+      </c>
+      <c r="F17">
+        <v>0.6994859005230375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0.98363095238095233</v>
+      </c>
+      <c r="F18">
+        <v>0.25888152966217343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>4.2740646258503405</v>
+      </c>
+      <c r="F19">
+        <v>0.64321954442246654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1.4192389254309274</v>
+      </c>
+      <c r="F20">
+        <v>0.41628513538906231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.1539775263531808</v>
+      </c>
+      <c r="F21">
+        <v>0.32183089005071192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>9.6470415416631035</v>
+      </c>
+      <c r="F22">
+        <v>2.7189112878211126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>4.3471575661518012</v>
+      </c>
+      <c r="F23">
+        <v>1.0875352792872413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1.0084761658000496</v>
+      </c>
+      <c r="F24">
+        <v>0.26369209640453389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>4.5413655240045081</v>
+      </c>
+      <c r="F25">
+        <v>0.7638443474403237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>89.519094908304268</v>
+      </c>
+      <c r="F26">
+        <v>50.755050913706377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>47.490666047179346</v>
+      </c>
+      <c r="F27">
+        <v>32.130271439548025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>389.69746815286504</v>
+      </c>
+      <c r="F28">
+        <v>67.109872554024435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>499.93996918803759</v>
+      </c>
+      <c r="F29">
+        <v>154.0815743209198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>23.764039682806377</v>
+      </c>
+      <c r="F30">
+        <v>4.5321792362871394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>282.55152025804966</v>
+      </c>
+      <c r="F31">
+        <v>70.43212197912176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>0.12633713732919252</v>
+      </c>
+      <c r="F32">
+        <v>2.4565113786170732E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>0.48218704124841855</v>
+      </c>
+      <c r="F33">
+        <v>0.29927197042185322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>0.17316778636165625</v>
+      </c>
+      <c r="F34">
+        <v>4.3869121382497815E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>0.1212657990818666</v>
+      </c>
+      <c r="F35">
+        <v>4.0325675866790166E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0.2916247781041883</v>
+      </c>
+      <c r="F36">
+        <v>4.3285046620913606E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>0.15813277726296718</v>
+      </c>
+      <c r="F37">
+        <v>4.7803458534039535E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
